--- a/Conditions/NbackMaster_v2.xlsx
+++ b/Conditions/NbackMaster_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolwell\Desktop\N-back (New)\Conditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\nback_2021_psychopy_version-main\Conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F91B17-8283-481D-A676-ED6E3DD4D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD5D19-F47E-427C-B1B5-BDE6219F3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28640" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>New rule: Press 'space' when you see 3-back (i.e. the same letter as the one that appeared 3 letters ago.)</t>
   </si>
   <si>
-    <t>Conditions/Version_2/threeback(3)_2.xlsx</t>
-  </si>
-  <si>
     <t>Conditions/Version_2/zeroback(1)_v2.xlsx</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>New rule: Press 'space' when you see 1-back (i.e. the same letter as the one that appeared 1 letter ago.)</t>
+  </si>
+  <si>
+    <t>Conditions/Version_2/threeback(3)_v2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -414,16 +414,16 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,129 +431,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
